--- a/data/Awards.xlsx
+++ b/data/Awards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4731EBDB-A262-CC46-AEDB-F18EC953C0FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94C602C-EE73-4F4C-B9CB-7A9105B04E42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{0DE2A074-5DB0-8F4D-8A52-B5D0EAB68E3C}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Co-Principal Investigator</t>
   </si>
   <si>
-    <t>Strategic Allocation of Resources (StAR) Award to imple- ment DAACS at the University at Albany ($48,500)</t>
-  </si>
-  <si>
     <t>2013 - 2015</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Service and Appreciation Award, College of Saint Rose.</t>
+  </si>
+  <si>
+    <t>Strategic Allocation of Resources (StAR) Award to implement DAACS at the University at Albany ($48,500)</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,29 +506,29 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -536,7 +536,7 @@
         <v>2013</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -544,15 +544,15 @@
         <v>2013</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -560,7 +560,7 @@
         <v>2011</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -568,7 +568,7 @@
         <v>2009</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -576,7 +576,7 @@
         <v>2009</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -584,7 +584,7 @@
         <v>2009</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -592,7 +592,7 @@
         <v>2001</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -600,7 +600,7 @@
         <v>1999</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -608,15 +608,15 @@
         <v>1999</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/Awards.xlsx
+++ b/data/Awards.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/CV/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94C602C-EE73-4F4C-B9CB-7A9105B04E42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD786584-6582-EA4C-8E20-0DD6D0265CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{0DE2A074-5DB0-8F4D-8A52-B5D0EAB68E3C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{0DE2A074-5DB0-8F4D-8A52-B5D0EAB68E3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Year</t>
   </si>
@@ -109,19 +113,37 @@
   </si>
   <si>
     <t>Strategic Allocation of Resources (StAR) Award to implement DAACS at the University at Albany ($48,500)</t>
+  </si>
+  <si>
+    <t>2021-2026</t>
+  </si>
+  <si>
+    <t>Institute of Education Sciences grant ($3,789,074, [R305A210269](https://ies.ed.gov/funding/grantsearch/details.asp?ID=4549), Examining the Efficacy, Predictive Power, and Cost Effectiveness of the Diagnostic Assessment and Achievement of College Skills</t>
+  </si>
+  <si>
+    <t>2020-2021</t>
+  </si>
+  <si>
+    <t>CUNY Interdisciplinary Grant ($40,000), Amplifying Potential: Youth Generated Research on COVID-19 and a vision for how to build back better</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,11 +166,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D142B48-6620-C245-815B-90552A82467F}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,94 +512,100 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2019</v>
+      <c r="A3" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>2013</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>2013</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>2009</v>
+      <c r="A10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -584,38 +613,54 @@
         <v>2009</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>1999</v>
+        <v>2009</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>1999</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1999</v>
+      </c>
+      <c r="C17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data/Awards.xlsx
+++ b/data/Awards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD786584-6582-EA4C-8E20-0DD6D0265CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3C84D7-E4D1-BB4F-9244-B6301E8E4AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{0DE2A074-5DB0-8F4D-8A52-B5D0EAB68E3C}"/>
+    <workbookView xWindow="14100" yWindow="8400" windowWidth="29060" windowHeight="16440" xr2:uid="{0DE2A074-5DB0-8F4D-8A52-B5D0EAB68E3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,13 +118,13 @@
     <t>2021-2026</t>
   </si>
   <si>
-    <t>Institute of Education Sciences grant ($3,789,074, [R305A210269](https://ies.ed.gov/funding/grantsearch/details.asp?ID=4549), Examining the Efficacy, Predictive Power, and Cost Effectiveness of the Diagnostic Assessment and Achievement of College Skills</t>
-  </si>
-  <si>
     <t>2020-2021</t>
   </si>
   <si>
     <t>CUNY Interdisciplinary Grant ($40,000), Amplifying Potential: Youth Generated Research on COVID-19 and a vision for how to build back better</t>
+  </si>
+  <si>
+    <t>Institute of Education Sciences grant ($3,789,074, R305A210269, Examining the Efficacy, Predictive Power, and Cost Effectiveness of the Diagnostic Assessment and Achievement of College Skills</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,18 +518,18 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
